--- a/INTLINE/data/578/NESDC/QGDP/Table 2Q_historical.xlsx
+++ b/INTLINE/data/578/NESDC/QGDP/Table 2Q_historical.xlsx
@@ -1,414 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>2022-Q1</t>
-  </si>
-  <si>
-    <t>Private final consumption expenditure</t>
-  </si>
-  <si>
-    <t>General government final consumption expenditure</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation</t>
-  </si>
-  <si>
-    <t>Change in inventories</t>
-  </si>
-  <si>
-    <t>Exports of goods and services</t>
-  </si>
-  <si>
-    <t>Imports of goods and services</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -423,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -442,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -739,2503 +353,2755 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:DN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:118">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:118">
-      <c r="A2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Private final consumption expenditure</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>577284</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>588187</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>583477</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>610574</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>613074</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>633997</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>634112</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>664173</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>677165</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>693366</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>683791</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>701771</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>688596</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>733769</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>731154</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>741299</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>712722</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>748574</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>707344</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>685356</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>652155</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>641334</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>624145</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>645264</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>636855</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>653410</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>675520</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>701321</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>694197</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>704469</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>710859</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>745273</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>737140</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>750704</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>755621</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>779641</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>777828</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>800589</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>801739</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>831046</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>842022</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>849127</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>860498</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>895460</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>906020</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>925719</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>919655</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>951774</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>938041</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>963644</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>967791</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>989257</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>987669</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>991910</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>987152</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>1000081</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>988243</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>1002877</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>1000655</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>1022307</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>1025478</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>1041193</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>1021680</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>1039467</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>1015709</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>1020305</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>1014347</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>1040339</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>1050216</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>1084298</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>1086662</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>1092518</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>1117656</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>1108314</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>1106271</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>1060564</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>1139943</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>1172520</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>1190371</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>1212082</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>1202112</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>1200602</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>1190029</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>1167157</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>1165317.48704255</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>1213047.506991234</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>1217048.508663447</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>1189866.497302769</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>1199213.24921718</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>1239423.961722786</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>1242164.010274524</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>1229099.77878551</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>1236671.772084442</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>1288447.223076809</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>1273742.094987137</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>1252487.909851613</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>1270431</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="n">
         <v>1325127</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" t="n">
         <v>1318774</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" t="n">
         <v>1292998</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" t="n">
         <v>1317882</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" t="n">
         <v>1384985</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" t="n">
         <v>1383251</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" t="n">
         <v>1359401</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" t="n">
         <v>1376385</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" t="n">
         <v>1440565</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" t="n">
         <v>1436569</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" t="n">
         <v>1408035</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" t="n">
         <v>1414142</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" t="n">
         <v>1344984</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" t="n">
         <v>1428288</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" t="n">
         <v>1419366</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" t="n">
         <v>1410166</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" t="n">
         <v>1408273</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" t="n">
         <v>1382609</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" t="n">
         <v>1424620</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" t="n">
         <v>1464767</v>
       </c>
     </row>
-    <row r="3" spans="1:118">
-      <c r="A3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>General government final consumption expenditure</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>111819</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>116963</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>137745</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>125080</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>128859</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>126162</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>153572</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>124600</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>139038</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>137207</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>159073</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>134606</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>147928</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>150738</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>168628</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>158534</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>156280</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>154225</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>174222</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>158448</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>152521</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>151098</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>191065</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>178120</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>156766</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>172374</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>185489</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>182444</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>167918</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>169695</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>198356</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>180336</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>171876</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>179345</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>204636</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>179055</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>190701</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>182900</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>204525</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>181867</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>182701</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>196266</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>220488</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>199488</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>197790</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>203926</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>222259</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>206100</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>212930</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>218730</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>246263</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>218511</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>221189</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>226177</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>252712</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>216656</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>241499</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>244804</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>277775</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>231046</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>238755</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>243026</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>296991</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>265375</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>270962</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>284670</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>312769</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>284299</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>296598</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>310383</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>337852</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>310852</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>310749</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>324269</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>361458</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>305964</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>319580</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>349943</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>388299</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>338031</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>320399</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>355283</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>400228</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>341469</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>330742</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>360924</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>404292</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>361218</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>337651</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>364687</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>409984</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>381513</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>366010</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>370766</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>398323</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>391156</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>362603</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>373533</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" t="n">
         <v>408298</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" t="n">
         <v>385716</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" t="n">
         <v>371488</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" t="n">
         <v>384989</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" t="n">
         <v>420339</v>
       </c>
-      <c r="DA3">
+      <c r="DA3" t="n">
         <v>394229</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" t="n">
         <v>383014</v>
       </c>
-      <c r="DC3">
+      <c r="DC3" t="n">
         <v>390517</v>
       </c>
-      <c r="DD3">
+      <c r="DD3" t="n">
         <v>430926</v>
       </c>
-      <c r="DE3">
+      <c r="DE3" t="n">
         <v>391381</v>
       </c>
-      <c r="DF3">
+      <c r="DF3" t="n">
         <v>373669</v>
       </c>
-      <c r="DG3">
+      <c r="DG3" t="n">
         <v>396424</v>
       </c>
-      <c r="DH3">
+      <c r="DH3" t="n">
         <v>447006</v>
       </c>
-      <c r="DI3">
+      <c r="DI3" t="n">
         <v>400689</v>
       </c>
-      <c r="DJ3">
+      <c r="DJ3" t="n">
         <v>382075</v>
       </c>
-      <c r="DK3">
+      <c r="DK3" t="n">
         <v>400290</v>
       </c>
-      <c r="DL3">
+      <c r="DL3" t="n">
         <v>453598</v>
       </c>
-      <c r="DM3">
+      <c r="DM3" t="n">
         <v>433250</v>
       </c>
-      <c r="DN3">
+      <c r="DN3" t="n">
         <v>399568</v>
       </c>
     </row>
-    <row r="4" spans="1:118">
-      <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Gross fixed capital formation</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>489903</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>499025</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>528543</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>514354</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>522250</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>570852</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>574384</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>598532</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>633755</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>618856</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>636883</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>645499</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>647974</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>651023</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>688959</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>724143</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>556769</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>549091</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>574077</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>441205</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>328991</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>267152</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>306096</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>285039</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>250204</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>279217</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>310058</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>294498</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>299121</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>270462</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>301282</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>298173</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>292784</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>289547</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>314207</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>293951</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>301351</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>310082</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>347713</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>305061</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>325899</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>339059</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>386250</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>372777</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>362769</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>391734</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>433656</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>461737</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>425876</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>450294</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>494883</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>514438</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>453548</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>475472</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>497595</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>508144</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>449685</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>473933</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>511527</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>533566</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>484849</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>491532</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>523214</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>515102</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>392921</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>421238</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>486474</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>495052</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>458003</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>485453</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>533280</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>527235</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>509143</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>531302</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>549709</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>511398</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>536019</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>574984</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>600105</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>615870</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>591254</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>595457</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>581591</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>535139</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>530624</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>569054</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>597110</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>555727</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>582945</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>576655</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>584868</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>606397</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>610812</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>595877</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>592302</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>619552</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>623691</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" t="n">
         <v>606298</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" t="n">
         <v>603031</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" t="n">
         <v>630129</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" t="n">
         <v>644861</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" t="n">
         <v>628866</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" t="n">
         <v>628443</v>
       </c>
-      <c r="DA4">
+      <c r="DA4" t="n">
         <v>657912</v>
       </c>
-      <c r="DB4">
+      <c r="DB4" t="n">
         <v>664552</v>
       </c>
-      <c r="DC4">
+      <c r="DC4" t="n">
         <v>639507</v>
       </c>
-      <c r="DD4">
+      <c r="DD4" t="n">
         <v>644487</v>
       </c>
-      <c r="DE4">
+      <c r="DE4" t="n">
         <v>662173</v>
       </c>
-      <c r="DF4">
+      <c r="DF4" t="n">
         <v>622208</v>
       </c>
-      <c r="DG4">
+      <c r="DG4" t="n">
         <v>590025</v>
       </c>
-      <c r="DH4">
+      <c r="DH4" t="n">
         <v>627495</v>
       </c>
-      <c r="DI4">
+      <c r="DI4" t="n">
         <v>645381</v>
       </c>
-      <c r="DJ4">
+      <c r="DJ4" t="n">
         <v>667785</v>
       </c>
-      <c r="DK4">
+      <c r="DK4" t="n">
         <v>633610</v>
       </c>
-      <c r="DL4">
+      <c r="DL4" t="n">
         <v>624686</v>
       </c>
-      <c r="DM4">
+      <c r="DM4" t="n">
         <v>644058</v>
       </c>
-      <c r="DN4">
+      <c r="DN4" t="n">
         <v>672976</v>
       </c>
     </row>
-    <row r="5" spans="1:118">
-      <c r="A5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Change in inventories</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>-3129</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>-2440</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>1231</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>30647</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>27546</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>-20149</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>-10256</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>46275</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>-3064</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>66374</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>20783</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>-1800</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>-1877</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>35033</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>24259</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>-9680</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>3198</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>-417</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>-22827</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>2352</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>-22812</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>-12721</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>-56456</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>-6111</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>15261</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>-2411</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>-42162</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>17509</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>24276</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>22711</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>-37693</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>27616</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>42765</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>5014</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>-31191</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>17429</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>22565</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>12262</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>-14775</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>27986</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>39243</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>-2388</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>-13820</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>26510</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>32615</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>13214</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>2544</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>5815</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>88369</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>84556</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>-46135</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>61159</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>6174</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>3362</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>-27035</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>28562</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>-8739</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>1500</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>-5470</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>15764</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>40751</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>-9005</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>36816</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>70008</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>-122258</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>-31200</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>-75981</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>46016</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>106715</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>-29760</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>-256</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>30697</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>50093</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>-33073</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>-22224</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>73408</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>104518</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>34635</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>-92166</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>45696</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>127365</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>44300</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>-86364</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>97777</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>31485</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>-62698</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>-45384</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>13025</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>14273</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>-62060</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>-77569</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>13442</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>-168096</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>-124123</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>-97922</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>49402</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>-77357</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" t="n">
         <v>-31163</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" t="n">
         <v>-71027</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" t="n">
         <v>110957</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" t="n">
         <v>-9408</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" t="n">
         <v>17468</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" t="n">
         <v>79286</v>
       </c>
-      <c r="DA5">
+      <c r="DA5" t="n">
         <v>171074</v>
       </c>
-      <c r="DB5">
+      <c r="DB5" t="n">
         <v>53394</v>
       </c>
-      <c r="DC5">
+      <c r="DC5" t="n">
         <v>33191</v>
       </c>
-      <c r="DD5">
+      <c r="DD5" t="n">
         <v>-41876</v>
       </c>
-      <c r="DE5">
+      <c r="DE5" t="n">
         <v>72298</v>
       </c>
-      <c r="DF5">
+      <c r="DF5" t="n">
         <v>65104</v>
       </c>
-      <c r="DG5">
+      <c r="DG5" t="n">
         <v>-43451</v>
       </c>
-      <c r="DH5">
+      <c r="DH5" t="n">
         <v>-102263</v>
       </c>
-      <c r="DI5">
+      <c r="DI5" t="n">
         <v>198079</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ5" t="n">
         <v>104359</v>
       </c>
-      <c r="DK5">
+      <c r="DK5" t="n">
         <v>-11189</v>
       </c>
-      <c r="DL5">
+      <c r="DL5" t="n">
         <v>74167</v>
       </c>
-      <c r="DM5">
+      <c r="DM5" t="n">
         <v>169466</v>
       </c>
-      <c r="DN5">
+      <c r="DN5" t="n">
         <v>61311</v>
       </c>
     </row>
-    <row r="6" spans="1:118">
-      <c r="A6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Exports of goods and services</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>397868</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>397561</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>454124</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>494639</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>450487</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>458131</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>497235</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>566914</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>539280</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>536025</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>570653</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>630032</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>547339</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>521708</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>528852</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>576043</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>550886</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>552848</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>592939</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>674053</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>650363</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>616795</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>652998</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>706405</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>635633</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>643808</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>744195</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>829754</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>763617</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>750434</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>881944</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>909140</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>819169</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>811992</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>835620</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>837680</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>825701</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>835356</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>901314</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>936633</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>915768</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>894119</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>966235</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>1042475</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>1047481</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>1067902</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>1106761</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>1155155</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>1095677</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>1153576</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>1249563</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>1218149</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>1239074</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>1240044</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>1357802</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>1388896</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>1346387</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>1344899</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>1441466</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>1557835</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>1499498</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>1511797</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>1617296</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>1418433</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>1239626</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>1188219</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>1399868</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>1485185</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>1456951</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>1471978</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>1537282</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>1602195</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>1691718</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>1652943</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>1804744</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>1496071</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>1666572</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>1684767</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>1766714</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>1770759</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>1758521</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>1706548</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>1800173</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>1796778</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>1761443</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>1698217</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>1744549</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>1882208</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>1799362</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>1735991</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>1813450</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>1826205</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>1888648</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>1773205</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>1849234</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>1857363</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>1932500</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" t="n">
         <v>1842735</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" t="n">
         <v>1988183</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" t="n">
         <v>1986780</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" t="n">
         <v>2056967</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" t="n">
         <v>1966846</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" t="n">
         <v>1975796</v>
       </c>
-      <c r="DA6">
+      <c r="DA6" t="n">
         <v>2010302</v>
       </c>
-      <c r="DB6">
+      <c r="DB6" t="n">
         <v>1962176</v>
       </c>
-      <c r="DC6">
+      <c r="DC6" t="n">
         <v>1879387</v>
       </c>
-      <c r="DD6">
+      <c r="DD6" t="n">
         <v>1981441</v>
       </c>
-      <c r="DE6">
+      <c r="DE6" t="n">
         <v>1950329</v>
       </c>
-      <c r="DF6">
+      <c r="DF6" t="n">
         <v>1846640</v>
       </c>
-      <c r="DG6">
+      <c r="DG6" t="n">
         <v>1353091</v>
       </c>
-      <c r="DH6">
+      <c r="DH6" t="n">
         <v>1516566</v>
       </c>
-      <c r="DI6">
+      <c r="DI6" t="n">
         <v>1527060</v>
       </c>
-      <c r="DJ6">
+      <c r="DJ6" t="n">
         <v>1655887</v>
       </c>
-      <c r="DK6">
+      <c r="DK6" t="n">
         <v>1737177</v>
       </c>
-      <c r="DL6">
+      <c r="DL6" t="n">
         <v>1702739</v>
       </c>
-      <c r="DM6">
+      <c r="DM6" t="n">
         <v>1795967</v>
       </c>
-      <c r="DN6">
+      <c r="DN6" t="n">
         <v>1853887</v>
       </c>
     </row>
-    <row r="7" spans="1:118">
-      <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Imports of goods and services</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>451456</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>475695</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>495676</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>595710</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>513942</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>563947</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>585181</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>708312</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>667284</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>715691</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>708627</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>824495</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>685463</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>702352</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>683442</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>750106</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>632958</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>656583</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>647479</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>639281</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>497855</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>500327</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>514532</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>559779</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>455138</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>566845</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>587463</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>699253</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>657149</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>688444</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>771311</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>791102</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>735581</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>757968</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>733961</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>723192</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>728613</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>777457</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>815329</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>812867</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>813292</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>823549</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>890206</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>955002</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>986365</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>1056310</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>1069090</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>1077312</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>1151406</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>1280530</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>1216934</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>1218412</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>1192597</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>1259287</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>1282804</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>1275858</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>1209830</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>1303226</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>1331896</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>1376056</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>1402691</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>1427534</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>1572173</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>1413734</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>974074</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>1086125</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>1214051</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>1333738</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>1359447</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>1383166</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>1453316</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>1469847</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>1561612</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>1575959</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>1707466</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>1523311</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>1626913</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>1710921</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>1672243</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>1716777</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>1764353</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>1759806</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>1664572</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>1651177</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>1576019</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>1595387</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>1665192</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>1640909</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>1617563</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>1602026</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>1632676</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>1625496</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>1538112</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>1575820</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>1617125</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>1682464</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>1617327</v>
       </c>
-      <c r="CU7">
+      <c r="CU7" t="n">
         <v>1673965</v>
       </c>
-      <c r="CV7">
+      <c r="CV7" t="n">
         <v>1719705</v>
       </c>
-      <c r="CW7">
+      <c r="CW7" t="n">
         <v>1801909</v>
       </c>
-      <c r="CX7">
+      <c r="CX7" t="n">
         <v>1762337</v>
       </c>
-      <c r="CY7">
+      <c r="CY7" t="n">
         <v>1833395</v>
       </c>
-      <c r="CZ7">
+      <c r="CZ7" t="n">
         <v>1897056</v>
       </c>
-      <c r="DA7">
+      <c r="DA7" t="n">
         <v>1883838</v>
       </c>
-      <c r="DB7">
+      <c r="DB7" t="n">
         <v>1756395</v>
       </c>
-      <c r="DC7">
+      <c r="DC7" t="n">
         <v>1768904</v>
       </c>
-      <c r="DD7">
+      <c r="DD7" t="n">
         <v>1764083</v>
       </c>
-      <c r="DE7">
+      <c r="DE7" t="n">
         <v>1706117</v>
       </c>
-      <c r="DF7">
+      <c r="DF7" t="n">
         <v>1696180</v>
       </c>
-      <c r="DG7">
+      <c r="DG7" t="n">
         <v>1351194</v>
       </c>
-      <c r="DH7">
+      <c r="DH7" t="n">
         <v>1396850</v>
       </c>
-      <c r="DI7">
+      <c r="DI7" t="n">
         <v>1562191</v>
       </c>
-      <c r="DJ7">
+      <c r="DJ7" t="n">
         <v>1713340</v>
       </c>
-      <c r="DK7">
+      <c r="DK7" t="n">
         <v>1738394</v>
       </c>
-      <c r="DL7">
+      <c r="DL7" t="n">
         <v>1808464</v>
       </c>
-      <c r="DM7">
+      <c r="DM7" t="n">
         <v>1818941</v>
       </c>
-      <c r="DN7">
+      <c r="DN7" t="n">
         <v>1828181</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>